--- a/inputFiles/inactive.xlsx
+++ b/inputFiles/inactive.xlsx
@@ -47,184 +47,712 @@
     <t>BRANCHCODE</t>
   </si>
   <si>
-    <t>SBI BIJPUR</t>
-  </si>
-  <si>
-    <t>S5NL008200621</t>
+    <t>DEOGHAR</t>
+  </si>
+  <si>
+    <t>S5NL000064622</t>
+  </si>
+  <si>
+    <t>PATNA</t>
+  </si>
+  <si>
+    <t>AO Deoghar</t>
+  </si>
+  <si>
+    <t>Inactive</t>
+  </si>
+  <si>
+    <t>NW-3</t>
+  </si>
+  <si>
+    <t>00064</t>
+  </si>
+  <si>
+    <t>SBI NAVAGADH</t>
+  </si>
+  <si>
+    <t>S5NL060201621</t>
+  </si>
+  <si>
+    <t>AHMEDABAD</t>
+  </si>
+  <si>
+    <t>AO RAJKOT</t>
+  </si>
+  <si>
+    <t>60201</t>
+  </si>
+  <si>
+    <t>KEREBILICHI</t>
+  </si>
+  <si>
+    <t>S5NL040340621</t>
+  </si>
+  <si>
+    <t>BENGALURU</t>
+  </si>
+  <si>
+    <t>AO BALLARI</t>
+  </si>
+  <si>
+    <t>NW-2</t>
+  </si>
+  <si>
+    <t>40340</t>
+  </si>
+  <si>
+    <t>WADDERHATTI, KOPPAL DIST</t>
+  </si>
+  <si>
+    <t>S5NL022009621</t>
+  </si>
+  <si>
+    <t>22009</t>
+  </si>
+  <si>
+    <t>CHEKKIAD</t>
+  </si>
+  <si>
+    <t>S5NL008456621</t>
+  </si>
+  <si>
+    <t>THIRUVANANTHAPURAM</t>
+  </si>
+  <si>
+    <t>AO KOZHIKODE</t>
+  </si>
+  <si>
+    <t>08456</t>
+  </si>
+  <si>
+    <t>ONSITE,AGIRIPALLE</t>
+  </si>
+  <si>
+    <t>S5NL013305621</t>
+  </si>
+  <si>
+    <t>AMARAVATI</t>
+  </si>
+  <si>
+    <t>AO Vijayawada</t>
+  </si>
+  <si>
+    <t>13305</t>
+  </si>
+  <si>
+    <t>B M ROAD KUNIGAL</t>
+  </si>
+  <si>
+    <t>S5NL040094622</t>
+  </si>
+  <si>
+    <t>40094</t>
+  </si>
+  <si>
+    <t>HESARGHATTA ROAD-2</t>
+  </si>
+  <si>
+    <t>S5NL010499622</t>
+  </si>
+  <si>
+    <t>AO BENGALURU NORTH</t>
+  </si>
+  <si>
+    <t>10499</t>
+  </si>
+  <si>
+    <t>BARAMASIA</t>
+  </si>
+  <si>
+    <t>S5NL003517621</t>
+  </si>
+  <si>
+    <t>03517</t>
+  </si>
+  <si>
+    <t>WASHERMANPET</t>
+  </si>
+  <si>
+    <t>S5NL018667622</t>
+  </si>
+  <si>
+    <t>CHENNAI</t>
+  </si>
+  <si>
+    <t>AO CHENNAI ZONE-I</t>
+  </si>
+  <si>
+    <t>NW-1</t>
+  </si>
+  <si>
+    <t>18667</t>
+  </si>
+  <si>
+    <t>SBI CHICKBALLAPUR-2</t>
+  </si>
+  <si>
+    <t>S5NL040082622</t>
+  </si>
+  <si>
+    <t>AO BENGALURU SOUTH</t>
+  </si>
+  <si>
+    <t>40082</t>
+  </si>
+  <si>
+    <t>SBI DEHGAM BR ATM</t>
+  </si>
+  <si>
+    <t>S5NL000535625</t>
+  </si>
+  <si>
+    <t>AO GANDHINAGAR</t>
+  </si>
+  <si>
+    <t>00535</t>
+  </si>
+  <si>
+    <t>B D ROAD CHITRADURGA</t>
+  </si>
+  <si>
+    <t>S5NL040109622</t>
+  </si>
+  <si>
+    <t>40109</t>
+  </si>
+  <si>
+    <t>BENSON TOWN, B'LORE-2</t>
+  </si>
+  <si>
+    <t>S5NL040371622</t>
+  </si>
+  <si>
+    <t>40371</t>
+  </si>
+  <si>
+    <t>DAVANGERE</t>
+  </si>
+  <si>
+    <t>S5NL005624624</t>
+  </si>
+  <si>
+    <t>05624</t>
+  </si>
+  <si>
+    <t>PAVAGADA RECYCLER</t>
+  </si>
+  <si>
+    <t>S5NL040103621</t>
+  </si>
+  <si>
+    <t>40103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NEAR CHAKIA RLY  STATION</t>
+  </si>
+  <si>
+    <t>S5NL002911621</t>
+  </si>
+  <si>
+    <t>AO Muzaffarpur</t>
+  </si>
+  <si>
+    <t>02911</t>
+  </si>
+  <si>
+    <t>TENUGHAT COURT</t>
+  </si>
+  <si>
+    <t>S5NL003230621</t>
+  </si>
+  <si>
+    <t>AO Dhanbad</t>
+  </si>
+  <si>
+    <t>03230</t>
+  </si>
+  <si>
+    <t>ONSITE,COMM BR, GUNTUR</t>
+  </si>
+  <si>
+    <t>S5NL000844623</t>
+  </si>
+  <si>
+    <t>AO Guntur</t>
+  </si>
+  <si>
+    <t>00844</t>
+  </si>
+  <si>
+    <t>BANK PERMISES</t>
+  </si>
+  <si>
+    <t>S5NL002934621</t>
+  </si>
+  <si>
+    <t>02934</t>
+  </si>
+  <si>
+    <t>M G ROAD TUMKUR</t>
+  </si>
+  <si>
+    <t>S5NL003917622</t>
+  </si>
+  <si>
+    <t>03917</t>
+  </si>
+  <si>
+    <t>SBI BANJARA CHOWK ATM</t>
+  </si>
+  <si>
+    <t>S5NL005971622</t>
+  </si>
+  <si>
+    <t>05971</t>
+  </si>
+  <si>
+    <t>MCC BLOCK BR, DAVANGERE</t>
+  </si>
+  <si>
+    <t>S5NL007356622</t>
+  </si>
+  <si>
+    <t>07356</t>
+  </si>
+  <si>
+    <t>HARIHAR</t>
+  </si>
+  <si>
+    <t>S5NL040111622</t>
+  </si>
+  <si>
+    <t>40111</t>
+  </si>
+  <si>
+    <t>BHARUCHMAINCDM</t>
+  </si>
+  <si>
+    <t>S5NL000339624</t>
+  </si>
+  <si>
+    <t>AO SURAT</t>
+  </si>
+  <si>
+    <t>00339</t>
+  </si>
+  <si>
+    <t>KOORALI-PALLICAKTHODE ROA</t>
+  </si>
+  <si>
+    <t>S5NL070360621</t>
+  </si>
+  <si>
+    <t>AO KOTTAYAM</t>
+  </si>
+  <si>
+    <t>70360</t>
+  </si>
+  <si>
+    <t>MANNAM ADWM</t>
+  </si>
+  <si>
+    <t>S5NL070947621</t>
+  </si>
+  <si>
+    <t>AO ERNAKULAM</t>
+  </si>
+  <si>
+    <t>70947</t>
+  </si>
+  <si>
+    <t>SBI</t>
+  </si>
+  <si>
+    <t>S5NL002025622</t>
   </si>
   <si>
     <t>KOLKATA</t>
   </si>
   <si>
-    <t>AO BURDWAN</t>
-  </si>
-  <si>
-    <t>Inactive</t>
-  </si>
-  <si>
-    <t>NW-3</t>
-  </si>
-  <si>
-    <t>08200</t>
-  </si>
-  <si>
-    <t>TENUGHAT COURT</t>
-  </si>
-  <si>
-    <t>S5NL003230621</t>
-  </si>
-  <si>
-    <t>PATNA</t>
-  </si>
-  <si>
-    <t>AO Dhanbad</t>
-  </si>
-  <si>
-    <t>03230</t>
-  </si>
-  <si>
-    <t>CHINAR COMPOUND UDHAMPUR</t>
-  </si>
-  <si>
-    <t>S5NL003318624</t>
-  </si>
-  <si>
-    <t>CHANDIGARH</t>
-  </si>
-  <si>
-    <t>AO JAMMU</t>
-  </si>
-  <si>
-    <t>03318</t>
-  </si>
-  <si>
-    <t>BAGULA BRANCH ONSITE 1</t>
-  </si>
-  <si>
-    <t>S5NL001302622</t>
-  </si>
-  <si>
-    <t>AO BIDHANNAGAR</t>
-  </si>
-  <si>
-    <t>NW-1</t>
-  </si>
-  <si>
-    <t>01302</t>
-  </si>
-  <si>
-    <t>BARIPAL</t>
-  </si>
-  <si>
-    <t>S5NL001968621</t>
+    <t>AO SILIGURI</t>
+  </si>
+  <si>
+    <t>02025</t>
+  </si>
+  <si>
+    <t>SULTANPET</t>
+  </si>
+  <si>
+    <t>S5NL040019621</t>
+  </si>
+  <si>
+    <t>40019</t>
+  </si>
+  <si>
+    <t>CHURCH SQUARE TUMKUR</t>
+  </si>
+  <si>
+    <t>S5NL040092622</t>
+  </si>
+  <si>
+    <t>40092</t>
+  </si>
+  <si>
+    <t>NILAMBUR</t>
+  </si>
+  <si>
+    <t>S5NL070194622</t>
+  </si>
+  <si>
+    <t>70194</t>
+  </si>
+  <si>
+    <t>SBI VEJALPUR</t>
+  </si>
+  <si>
+    <t>S5NL013025621</t>
+  </si>
+  <si>
+    <t>AO VADODARA</t>
+  </si>
+  <si>
+    <t>13025</t>
+  </si>
+  <si>
+    <t>RPC LAYOUT, B'LORE-2</t>
+  </si>
+  <si>
+    <t>S5NL007989623</t>
+  </si>
+  <si>
+    <t>07989</t>
+  </si>
+  <si>
+    <t>N R EXTN. CHINTAMANI</t>
+  </si>
+  <si>
+    <t>S5NL040083621</t>
+  </si>
+  <si>
+    <t>40083</t>
+  </si>
+  <si>
+    <t>ONSITE,TOWN BR KANDUKU</t>
+  </si>
+  <si>
+    <t>S5NL020774621</t>
+  </si>
+  <si>
+    <t>20774</t>
+  </si>
+  <si>
+    <t>SIDDAGANGA EXTN, TUMKUR</t>
+  </si>
+  <si>
+    <t>S5NL040334621</t>
+  </si>
+  <si>
+    <t>40334</t>
+  </si>
+  <si>
+    <t>SBI NANDINI LAYOUT</t>
+  </si>
+  <si>
+    <t>S5NL011288622</t>
+  </si>
+  <si>
+    <t>11288</t>
+  </si>
+  <si>
+    <t>ACHARAPAKKAM ADWM</t>
+  </si>
+  <si>
+    <t>S5BL015305621</t>
+  </si>
+  <si>
+    <t>AO CHENNAI ZONE-II</t>
+  </si>
+  <si>
+    <t>15305</t>
+  </si>
+  <si>
+    <t>SBI SURENDRANAGAR MAIN</t>
+  </si>
+  <si>
+    <t>S5NL006498621</t>
+  </si>
+  <si>
+    <t>AO Ahmedabad</t>
+  </si>
+  <si>
+    <t>06498</t>
+  </si>
+  <si>
+    <t>SBI BANSILALNAGAR BR 2ND</t>
+  </si>
+  <si>
+    <t>S5NL020302622</t>
+  </si>
+  <si>
+    <t>MAHARASHTRA</t>
+  </si>
+  <si>
+    <t>AO AURANGABAD</t>
+  </si>
+  <si>
+    <t>20302</t>
+  </si>
+  <si>
+    <t>NEAR SBI BRANCH</t>
+  </si>
+  <si>
+    <t>S5NL003033623</t>
+  </si>
+  <si>
+    <t>03033</t>
+  </si>
+  <si>
+    <t>SBI PERINGATHUR</t>
+  </si>
+  <si>
+    <t>S5NL070367621</t>
+  </si>
+  <si>
+    <t>70367</t>
+  </si>
+  <si>
+    <t>GOLA RD DUMROAN</t>
+  </si>
+  <si>
+    <t>S5NL003027621</t>
+  </si>
+  <si>
+    <t>AO Patna</t>
+  </si>
+  <si>
+    <t>03027</t>
+  </si>
+  <si>
+    <t>VIJAYANAGAR, B'LORE</t>
+  </si>
+  <si>
+    <t>S5NL007985621</t>
+  </si>
+  <si>
+    <t>07985</t>
+  </si>
+  <si>
+    <t>CIVIL LINES, PATTI</t>
+  </si>
+  <si>
+    <t>S5NL000240623</t>
   </si>
   <si>
     <t>LUCKNOW</t>
   </si>
   <si>
-    <t>AO KANPUR</t>
-  </si>
-  <si>
-    <t>NW-2</t>
-  </si>
-  <si>
-    <t>01968</t>
-  </si>
-  <si>
-    <t>BHARUCHMAINCDM</t>
-  </si>
-  <si>
-    <t>S5NL000339624</t>
-  </si>
-  <si>
-    <t>AHMEDABAD</t>
-  </si>
-  <si>
-    <t>AO SURAT</t>
-  </si>
-  <si>
-    <t>00339</t>
-  </si>
-  <si>
-    <t>ONSITE,TOWN BR KANDUKU</t>
-  </si>
-  <si>
-    <t>S5NL020774621</t>
-  </si>
-  <si>
-    <t>AMARAVATI</t>
-  </si>
-  <si>
-    <t>AO Guntur</t>
-  </si>
-  <si>
-    <t>20774</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SBI  VENNANDUR</t>
-  </si>
-  <si>
-    <t>S5NL002286621</t>
-  </si>
-  <si>
-    <t>CHENNAI</t>
+    <t>AO ALLAHABAD</t>
+  </si>
+  <si>
+    <t>00240</t>
+  </si>
+  <si>
+    <t>R T NAGAR BRANCH</t>
+  </si>
+  <si>
+    <t>S5NL007982622</t>
+  </si>
+  <si>
+    <t>07982</t>
+  </si>
+  <si>
+    <t>RLY STN ROAD, GUBBI</t>
+  </si>
+  <si>
+    <t>S5NL040099622</t>
+  </si>
+  <si>
+    <t>40099</t>
+  </si>
+  <si>
+    <t>HIGH SCHOOL ROAD MADHUGIR</t>
+  </si>
+  <si>
+    <t>S5BL040095621</t>
+  </si>
+  <si>
+    <t>40095</t>
+  </si>
+  <si>
+    <t>HILLI BRANCH ONSITE</t>
+  </si>
+  <si>
+    <t>S5NL012415621</t>
+  </si>
+  <si>
+    <t>12415</t>
+  </si>
+  <si>
+    <t>SIRA GATE</t>
+  </si>
+  <si>
+    <t>S5NL040418622</t>
+  </si>
+  <si>
+    <t>40418</t>
+  </si>
+  <si>
+    <t>STATE BANK OF INDIA BUILD</t>
+  </si>
+  <si>
+    <t>S5NL002980621</t>
+  </si>
+  <si>
+    <t>AO Gaya</t>
+  </si>
+  <si>
+    <t>02980</t>
+  </si>
+  <si>
+    <t>CHEPAUK</t>
+  </si>
+  <si>
+    <t>S5NL002234621</t>
+  </si>
+  <si>
+    <t>02234</t>
+  </si>
+  <si>
+    <t>CHALLAKERE 2ND</t>
+  </si>
+  <si>
+    <t>S5NL040110621</t>
+  </si>
+  <si>
+    <t>40110</t>
+  </si>
+  <si>
+    <t>SBI STADIUM PARBHANI BRAN</t>
+  </si>
+  <si>
+    <t>S5NL020016623</t>
+  </si>
+  <si>
+    <t>20016</t>
+  </si>
+  <si>
+    <t>SBI RAJAULI</t>
+  </si>
+  <si>
+    <t>S5NL010774621</t>
+  </si>
+  <si>
+    <t>10774</t>
+  </si>
+  <si>
+    <t>SBI CHINTAMANI</t>
+  </si>
+  <si>
+    <t>S5NL007909623</t>
+  </si>
+  <si>
+    <t>07909</t>
+  </si>
+  <si>
+    <t>S5NL005624625</t>
+  </si>
+  <si>
+    <t>BELOW SBI BASANTPUR</t>
+  </si>
+  <si>
+    <t>S5NL014292621</t>
+  </si>
+  <si>
+    <t>14292</t>
+  </si>
+  <si>
+    <t>WORAIYUR 2ND ONSITE</t>
+  </si>
+  <si>
+    <t>S5NL003778624</t>
+  </si>
+  <si>
+    <t>AO TRICHY</t>
+  </si>
+  <si>
+    <t>03778</t>
+  </si>
+  <si>
+    <t>RAGHVENDRA NAGAR</t>
+  </si>
+  <si>
+    <t>S5NL040574621</t>
+  </si>
+  <si>
+    <t>40574</t>
+  </si>
+  <si>
+    <t>METTUPALAYAM ROAD</t>
+  </si>
+  <si>
+    <t>S5NL001541622</t>
   </si>
   <si>
     <t>AO COIMBATORE</t>
   </si>
   <si>
-    <t>02286</t>
-  </si>
-  <si>
-    <t>SBI ELAMANNUR</t>
-  </si>
-  <si>
-    <t>S5NL007251622</t>
-  </si>
-  <si>
-    <t>THIRUVANANTHAPURAM</t>
-  </si>
-  <si>
-    <t>AO KOLLAM</t>
-  </si>
-  <si>
-    <t>07251</t>
-  </si>
-  <si>
-    <t>MANNARKKAD</t>
-  </si>
-  <si>
-    <t>S5NL070181622</t>
-  </si>
-  <si>
-    <t>AO THRISSUR</t>
-  </si>
-  <si>
-    <t>70181</t>
-  </si>
-  <si>
-    <t>BELOW SBI BASANTPUR</t>
-  </si>
-  <si>
-    <t>S5NL014292621</t>
-  </si>
-  <si>
-    <t>AO Muzaffarpur</t>
-  </si>
-  <si>
-    <t>14292</t>
-  </si>
-  <si>
-    <t>SBI DIPATOLI</t>
-  </si>
-  <si>
-    <t>S5NL005991621</t>
-  </si>
-  <si>
-    <t>AO Ranchi</t>
-  </si>
-  <si>
-    <t>05991</t>
+    <t>01541</t>
+  </si>
+  <si>
+    <t>SBI HARIHAR</t>
+  </si>
+  <si>
+    <t>S5NL040111623</t>
+  </si>
+  <si>
+    <t>BUKKAPATNA</t>
+  </si>
+  <si>
+    <t>S5NL040098621</t>
+  </si>
+  <si>
+    <t>40098</t>
+  </si>
+  <si>
+    <t>HOTEL ANJANA</t>
+  </si>
+  <si>
+    <t>S5NL001434622</t>
+  </si>
+  <si>
+    <t>01434</t>
+  </si>
+  <si>
+    <t>RAMGARH BZR</t>
+  </si>
+  <si>
+    <t>S5NL012815621</t>
+  </si>
+  <si>
+    <t>12815</t>
+  </si>
+  <si>
+    <t>ONSITE,MARKAPUR BAZAR BR</t>
+  </si>
+  <si>
+    <t>S5NL012918621</t>
+  </si>
+  <si>
+    <t>12918</t>
+  </si>
+  <si>
+    <t>ROYAPETTAH</t>
+  </si>
+  <si>
+    <t>S5NL001793623</t>
+  </si>
+  <si>
+    <t>01793</t>
   </si>
 </sst>
 </file>
@@ -622,16 +1150,16 @@
         <v>12</v>
       </c>
       <c r="C2" s="1">
-        <v>1953100</v>
+        <v>5793400</v>
       </c>
       <c r="D2" s="3">
-        <v>44846.67994105324</v>
+        <v>44860.614218287032</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F2" s="3">
-        <v>44846.67994105324</v>
+        <v>44859.424604629625</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>14</v>
@@ -643,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="J2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>17</v>
@@ -657,16 +1185,16 @@
         <v>19</v>
       </c>
       <c r="C3" s="1">
-        <v>1755500</v>
+        <v>49500</v>
       </c>
       <c r="D3" s="3">
-        <v>44829.518514849537</v>
+        <v>44859.573508020832</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="3">
-        <v>44829.518514849537</v>
+        <v>44859.493981631946</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>21</v>
@@ -678,7 +1206,7 @@
         <v>16</v>
       </c>
       <c r="J3" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>22</v>
@@ -692,16 +1220,16 @@
         <v>24</v>
       </c>
       <c r="C4" s="1">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="D4" s="3">
-        <v>44846.541484409718</v>
+        <v>44861.750918090278</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="F4" s="3">
-        <v>44846.538314618054</v>
+        <v>44861.719497997685</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>26</v>
@@ -710,328 +1238,2253 @@
         <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J4" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1">
-        <v>3827700</v>
+        <v>1200</v>
       </c>
       <c r="D5" s="3">
-        <v>44847.499380439811</v>
+        <v>44859.693279363426</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3">
-        <v>44846.873108715277</v>
+        <v>44859.61905883102</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="J5" s="1">
-        <v>5</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>44853.659800844907</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="1">
-        <v>3253100</v>
-      </c>
-      <c r="D6" s="3">
-        <v>44823.774323414349</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="3">
+        <v>44853.417224039353</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="3">
-        <v>44819.45931658565</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="H6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J6" s="1">
         <v>2</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1098900</v>
+      </c>
+      <c r="D7" s="3">
+        <v>44862.611430787038</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="F7" s="3">
+        <v>44862.562227893519</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="1">
-        <v>100000</v>
-      </c>
-      <c r="D7" s="3">
-        <v>44848.493459456018</v>
-      </c>
-      <c r="E7" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>41</v>
-      </c>
-      <c r="F7" s="3">
-        <v>44848.483365127315</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1">
-        <v>1221500</v>
+        <v>1000</v>
       </c>
       <c r="D8" s="3">
-        <v>44848.920220520835</v>
+        <v>44861.682714201386</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F8" s="3">
-        <v>44848.908673113423</v>
+        <v>44860.6316099537</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="J8" s="1">
         <v>6</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C9" s="1">
-        <v>608400</v>
+        <v>0</v>
       </c>
       <c r="D9" s="3">
-        <v>44849.518112268517</v>
+        <v>44859.544357870371</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F9" s="3">
-        <v>44848.584353472223</v>
+        <v>44859.529071215278</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J9" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>1019500</v>
       </c>
       <c r="D10" s="3">
-        <v>44841.538268402779</v>
+        <v>44862.478816898147</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="F10" s="3">
-        <v>44840.709894328698</v>
+        <v>44862.463806331019</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1">
-        <v>4002300</v>
+        <v>826500</v>
       </c>
       <c r="D11" s="3">
-        <v>44849.03676732639</v>
+        <v>44862.640840358792</v>
       </c>
       <c r="E11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="3">
+        <v>44862.597784606478</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="3">
-        <v>44849.010496099538</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="J11" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C12" s="1">
-        <v>553100</v>
+        <v>0</v>
       </c>
       <c r="D12" s="3">
-        <v>44824.821250543981</v>
+        <v>44855.66959193287</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F12" s="3">
-        <v>44824.731579317129</v>
+        <v>44855.660816898147</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="J12" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C13" s="1">
         <v>0</v>
       </c>
       <c r="D13" s="3">
-        <v>44848.542232488428</v>
+        <v>44862.534757141198</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F13" s="3">
-        <v>44847.558698761575</v>
+        <v>44862.49309290509</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>15</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="J13" s="1">
         <v>1</v>
       </c>
       <c r="K13" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D14" s="3">
+        <v>44859.679550891204</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="3">
+        <v>44859.649729780089</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>70</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D15" s="3">
+        <v>44861.686576006941</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="3">
+        <v>44861.656805671293</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="1">
+        <v>100</v>
+      </c>
+      <c r="D16" s="3">
+        <v>44861.705681979161</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3">
+        <v>44861.527600231479</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="1">
+        <v>3</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D17" s="3">
+        <v>44859.532101932869</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="3">
+        <v>44857.542327511575</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="1">
+        <v>5</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="1">
+        <v>40800</v>
+      </c>
+      <c r="D18" s="3">
+        <v>44860.597809143517</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" s="3">
+        <v>44860.417756249997</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="1">
+        <v>2</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1291000</v>
+      </c>
+      <c r="D19" s="3">
+        <v>44862.540238657406</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="3">
+        <v>44862.536857025458</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" s="1">
+        <v>178500</v>
+      </c>
+      <c r="D20" s="3">
+        <v>44862.745589467588</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="3">
+        <v>44859.836136886574</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="3">
+        <v>44862.55156284722</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="3">
+        <v>44859.769251354162</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="1">
+        <v>3</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7500</v>
+      </c>
+      <c r="D22" s="3">
+        <v>44861.518177048609</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" s="3">
+        <v>44861.464189351849</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="1">
+        <v>6</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2463400</v>
+      </c>
+      <c r="D23" s="3">
+        <v>44857.662258645832</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="3">
+        <v>44857.657270405092</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="1">
+        <v>4</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="1">
+        <v>200</v>
+      </c>
+      <c r="D24" s="3">
+        <v>44861.675131747681</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" s="3">
+        <v>44861.641835995368</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J24" s="1">
+        <v>3</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="1">
+        <v>200</v>
+      </c>
+      <c r="D25" s="3">
+        <v>44861.652867557867</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="3">
+        <v>44847.474370567128</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="1">
+        <v>3</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C26" s="1">
+        <v>100000</v>
+      </c>
+      <c r="D26" s="3">
+        <v>44848.493459456018</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="3">
+        <v>44848.483365127315</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="3">
+        <v>44859.467037303242</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27" s="3">
+        <v>44859.416376273148</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2086500</v>
+      </c>
+      <c r="D28" s="3">
+        <v>44861.893271215275</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="3">
+        <v>44861.857358761576</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" s="1">
+        <v>3</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C29" s="1">
+        <v>1239300</v>
+      </c>
+      <c r="D29" s="3">
+        <v>44861.317294247681</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="3">
+        <v>44861.317294247681</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J29" s="1">
+        <v>3</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C30" s="1">
+        <v>500</v>
+      </c>
+      <c r="D30" s="3">
+        <v>44859.53232878472</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="3">
+        <v>44859.506076192127</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J30" s="1">
+        <v>5</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D31" s="3">
+        <v>44859.679456134254</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" s="3">
+        <v>44858.677506018517</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J31" s="1">
+        <v>5</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C32" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D32" s="3">
+        <v>44860.57896392361</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32" s="3">
+        <v>44857.858170914347</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="1">
+        <v>4</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="1">
+        <v>2207200</v>
+      </c>
+      <c r="D33" s="3">
+        <v>44857.770376076391</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="3">
+        <v>44857.770376076391</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J33" s="1">
+        <v>4</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D34" s="3">
+        <v>44861.7280034375</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" s="3">
+        <v>44859.852958946758</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J34" s="1">
+        <v>4</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="3">
+        <v>44855.578090891198</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35" s="3">
+        <v>44855.545021562495</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J35" s="1">
+        <v>6</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1221500</v>
+      </c>
+      <c r="D36" s="3">
+        <v>44848.920220520835</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="3">
+        <v>44848.908673113423</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J36" s="1">
+        <v>6</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C37" s="1">
+        <v>5000</v>
+      </c>
+      <c r="D37" s="3">
+        <v>44861.555086840279</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37" s="3">
+        <v>44861.508778043979</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J37" s="1">
+        <v>6</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="3">
+        <v>44859.584030902777</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38" s="3">
+        <v>44859.554720173612</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" s="1">
+        <v>3</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="3">
+        <v>44862.67853626157</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F39" s="3">
+        <v>44862.61010262731</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J39" s="1">
+        <v>4</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="3">
+        <v>44861.574086805551</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="3">
+        <v>44855.617785034723</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J40" s="1">
+        <v>5</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1787100</v>
+      </c>
+      <c r="D41" s="3">
+        <v>44862.37317126157</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F41" s="3">
+        <v>44862.365787847222</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C42" s="1">
+        <v>277500</v>
+      </c>
+      <c r="D42" s="3">
+        <v>44862.475954513888</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" s="3">
+        <v>44862.475166747681</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="3">
+        <v>44862.52121446759</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="3">
+        <v>44860.963272569439</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J43" s="1">
+        <v>5</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C44" s="1">
+        <v>212900</v>
+      </c>
+      <c r="D44" s="3">
+        <v>44861.528248645831</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="3">
+        <v>44860.535092974533</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J44" s="1">
+        <v>5</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D45" s="3">
+        <v>44861.589230474536</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" s="3">
+        <v>44861.57156261574</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J45" s="1">
+        <v>4</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1603600</v>
+      </c>
+      <c r="D46" s="3">
+        <v>44859.615771099532</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F46" s="3">
+        <v>44859.609614351852</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" s="1">
+        <v>4</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D47" s="3">
+        <v>44859.715268287036</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47" s="3">
+        <v>44855.374174571756</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C48" s="1">
+        <v>600</v>
+      </c>
+      <c r="D48" s="3">
+        <v>44861.595443252314</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="3">
+        <v>44861.458821493055</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48" s="1">
+        <v>6</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C49" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D49" s="3">
+        <v>44861.608550694444</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" s="3">
+        <v>44860.664807326386</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J49" s="1">
+        <v>5</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" s="1">
+        <v>326500</v>
+      </c>
+      <c r="D50" s="3">
+        <v>44855.550687002316</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F50" s="3">
+        <v>44855.540341087959</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="1">
+        <v>5</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1000</v>
+      </c>
+      <c r="D51" s="3">
+        <v>44859.693284027773</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51" s="3">
+        <v>44859.623631979164</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J51" s="1">
+        <v>5</v>
+      </c>
+      <c r="K51" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C52" s="1">
+        <v>2044900</v>
+      </c>
+      <c r="D52" s="3">
+        <v>44857.540172800924</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F52" s="3">
+        <v>44855.636189895835</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J52" s="1">
+        <v>2</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="3">
+        <v>44862.650546064811</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F53" s="3">
+        <v>44861.741622881942</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J53" s="1">
+        <v>1</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C54" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D54" s="3">
+        <v>44859.765195601853</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F54" s="3">
+        <v>44859.723091053238</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J54" s="1">
+        <v>4</v>
+      </c>
+      <c r="K54" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1290900</v>
+      </c>
+      <c r="D55" s="3">
+        <v>44862.522688460645</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="F55" s="3">
+        <v>44861.968447916668</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J55" s="1">
+        <v>4</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3241900</v>
+      </c>
+      <c r="D56" s="3">
+        <v>44862.746986030092</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F56" s="3">
+        <v>44862.746986030092</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J56" s="1">
+        <v>4</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="3">
+        <v>44855.745098761574</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F57" s="3">
+        <v>44855.563473530092</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J57" s="1">
+        <v>6</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C58" s="1">
+        <v>200</v>
+      </c>
+      <c r="D58" s="3">
+        <v>44861.585112465276</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F58" s="3">
+        <v>44861.539512928241</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J58" s="1">
+        <v>3</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C59" s="1">
+        <v>553100</v>
+      </c>
+      <c r="D59" s="3">
+        <v>44824.821250543981</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F59" s="3">
+        <v>44824.731579317129</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J59" s="1">
+        <v>4</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C60" s="1">
+        <v>1791700</v>
+      </c>
+      <c r="D60" s="3">
+        <v>44862.706221990738</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F60" s="3">
+        <v>44859.818184456017</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J60" s="1">
+        <v>1</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C61" s="1">
+        <v>2000</v>
+      </c>
+      <c r="D61" s="3">
+        <v>44861.559745405088</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F61" s="3">
+        <v>44861.517929513888</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J61" s="1">
+        <v>5</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C62" s="1">
+        <v>1975900</v>
+      </c>
+      <c r="D62" s="3">
+        <v>44862.627819791662</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F62" s="3">
+        <v>44862.48772438657</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" s="1">
+        <v>2</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C63" s="1">
+        <v>100</v>
+      </c>
+      <c r="D63" s="3">
+        <v>44861.606475659719</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" s="3">
+        <v>44861.532499768517</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J63" s="1">
+        <v>3</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C64" s="1">
+        <v>613400</v>
+      </c>
+      <c r="D64" s="3">
+        <v>44859.749870219908</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F64" s="3">
+        <v>44859.587903043983</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J64" s="1">
+        <v>5</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C65" s="1">
+        <v>33300</v>
+      </c>
+      <c r="D65" s="3">
+        <v>44861.656607210643</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" s="3">
+        <v>44861.654142476851</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" s="1">
+        <v>4</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C66" s="1">
+        <v>1016200</v>
+      </c>
+      <c r="D66" s="3">
+        <v>44860.460599618054</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="3">
+        <v>44857.710481331014</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" s="1">
+        <v>5</v>
+      </c>
+      <c r="K66" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C67" s="1">
+        <v>584300</v>
+      </c>
+      <c r="D67" s="3">
+        <v>44862.566332488423</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F67" s="3">
+        <v>44861.849950694443</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J67" s="1">
+        <v>6</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C68" s="1">
+        <v>0</v>
+      </c>
+      <c r="D68" s="3">
+        <v>44862.641555983791</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F68" s="3">
+        <v>44862.635957523147</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J68" s="1">
+        <v>1</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
